--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z039136\OneDrive - Alliance\Desktop\Appium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grouperenault-my.sharepoint.com/personal/pugazenthi_sivaji_rntbci_com/Documents/Desktop/Appium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8909818B-395B-494B-9FB5-18835889B893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{CBAEAA0A-3CE4-49D9-9B5A-E6E701285617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EFB1F30-5A0F-41B2-865C-033B3E80A583}"/>
   <bookViews>
-    <workbookView xWindow="-50745" yWindow="-5535" windowWidth="21600" windowHeight="11295" xr2:uid="{46B9E415-91DF-4BA9-BA5B-5F98C5EEDB49}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{46B9E415-91DF-4BA9-BA5B-5F98C5EEDB49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Job Code</t>
   </si>
 </sst>
 </file>
@@ -100,7 +103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -123,30 +126,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,99 +464,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E669CCB-C80E-4B92-B389-B98F1CC6BEC5}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>123</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>45422</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>45431</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>456</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>45422</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>45433</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>789</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>45422</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>45434</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>45422</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>45435</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>112</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>45422</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>45436</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="3">
         <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>555</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45483</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45528</v>
+      </c>
+      <c r="E7" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>777</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45453</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45467</v>
+      </c>
+      <c r="E8" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>889</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45545</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45588</v>
+      </c>
+      <c r="E9" s="7">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
